--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-04/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-04/curvature_data.xlsx
@@ -379,240 +379,240 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54386.527063</v>
+        <v>54312.863059</v>
       </c>
       <c r="B2">
-        <v>8.0210473967e-05</v>
+        <v>-2.6225925068e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00046874292107</v>
+        <v>-2.3922397072e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00064798605253</v>
+        <v>-1.709585055e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54462.995067</v>
+        <v>54324.72706</v>
       </c>
       <c r="B3">
-        <v>9.819809182599999e-05</v>
+        <v>0.00010117856013</v>
       </c>
       <c r="C3">
-        <v>-0.00012574201998</v>
+        <v>-4.677663974e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00019982003494</v>
+        <v>-0.00012984491624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54474.191067</v>
+        <v>54334.59506</v>
       </c>
       <c r="B4">
-        <v>7.3248178188e-05</v>
+        <v>5.7650812432e-05</v>
       </c>
       <c r="C4">
-        <v>-5.2566979163e-05</v>
+        <v>-0.0001305841354</v>
       </c>
       <c r="D4">
-        <v>-0.0001194903658</v>
+        <v>-0.00020547910816</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54312.863059</v>
+        <v>54345.459061</v>
       </c>
       <c r="B5">
-        <v>-2.6225925068e-05</v>
+        <v>4.6788068462e-05</v>
       </c>
       <c r="C5">
-        <v>-2.3922397072e-05</v>
+        <v>-0.00020856951528</v>
       </c>
       <c r="D5">
-        <v>-1.709585055e-05</v>
+        <v>-0.00029129248608</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>54398.995064</v>
+        <v>54356.259061</v>
       </c>
       <c r="B6">
-        <v>1.1809502512e-05</v>
+        <v>6.0194619292e-05</v>
       </c>
       <c r="C6">
-        <v>-0.00054306542303</v>
+        <v>-0.00027195375234</v>
       </c>
       <c r="D6">
-        <v>-0.00073254962092</v>
+        <v>-0.00038389115246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>54356.259061</v>
+        <v>54366.459062</v>
       </c>
       <c r="B7">
-        <v>6.0194619292e-05</v>
+        <v>7.9874533176e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00027195375234</v>
+        <v>-0.00033527875711</v>
       </c>
       <c r="D7">
-        <v>-0.00038389115246</v>
+        <v>-0.00047547476368</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>54483.795068</v>
+        <v>54376.863062</v>
       </c>
       <c r="B8">
-        <v>7.7998311767e-05</v>
+        <v>9.6045481805e-05</v>
       </c>
       <c r="C8">
-        <v>1.1401516054e-05</v>
+        <v>-0.00039230648376</v>
       </c>
       <c r="D8">
-        <v>-3.6087690937e-05</v>
+        <v>-0.00056725757683</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54324.72706</v>
+        <v>54386.527063</v>
       </c>
       <c r="B9">
-        <v>0.00010117856013</v>
+        <v>8.0210473967e-05</v>
       </c>
       <c r="C9">
-        <v>-4.677663974e-05</v>
+        <v>-0.00046874292107</v>
       </c>
       <c r="D9">
-        <v>-0.00012984491624</v>
+        <v>-0.00064798605253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>54440.195066</v>
+        <v>54398.995064</v>
       </c>
       <c r="B10">
-        <v>8.366581556200001e-05</v>
+        <v>1.1809502512e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00027689745199</v>
+        <v>-0.00054306542303</v>
       </c>
       <c r="D10">
-        <v>-0.00036983689325</v>
+        <v>-0.00073254962092</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>54334.59506</v>
+        <v>54409.995064</v>
       </c>
       <c r="B11">
-        <v>5.7650812432e-05</v>
+        <v>8.2487166833e-05</v>
       </c>
       <c r="C11">
-        <v>-0.0001305841354</v>
+        <v>-0.00046311175854</v>
       </c>
       <c r="D11">
-        <v>-0.00020547910816</v>
+        <v>-0.0006494417001700001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>54430.059065</v>
+        <v>54419.395065</v>
       </c>
       <c r="B12">
-        <v>9.5638495721e-05</v>
+        <v>7.296988227900001e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00034285206269</v>
+        <v>-0.00040033276647</v>
       </c>
       <c r="D12">
-        <v>-0.00045734384172</v>
+        <v>-0.00055854735331</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>54366.459062</v>
+        <v>54430.059065</v>
       </c>
       <c r="B13">
-        <v>7.9874533176e-05</v>
+        <v>9.5638495721e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00033527875711</v>
+        <v>-0.00034285206269</v>
       </c>
       <c r="D13">
-        <v>-0.00047547476368</v>
+        <v>-0.00045734384172</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>54419.395065</v>
+        <v>54440.195066</v>
       </c>
       <c r="B14">
-        <v>7.296988227900001e-05</v>
+        <v>8.366581556200001e-05</v>
       </c>
       <c r="C14">
-        <v>-0.00040033276647</v>
+        <v>-0.00027689745199</v>
       </c>
       <c r="D14">
-        <v>-0.00055854735331</v>
+        <v>-0.00036983689325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>54345.459061</v>
+        <v>54451.459066</v>
       </c>
       <c r="B15">
-        <v>4.6788068462e-05</v>
+        <v>0.0001077815</v>
       </c>
       <c r="C15">
-        <v>-0.00020856951528</v>
+        <v>-0.0002041687</v>
       </c>
       <c r="D15">
-        <v>-0.00029129248608</v>
+        <v>-0.0002777635</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>54409.995064</v>
+        <v>54462.995067</v>
       </c>
       <c r="B16">
-        <v>8.2487166833e-05</v>
+        <v>9.819809182599999e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00046311175854</v>
+        <v>-0.00012574201998</v>
       </c>
       <c r="D16">
-        <v>-0.0006494417001700001</v>
+        <v>-0.00019982003494</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>54451.459066</v>
+        <v>54474.191067</v>
       </c>
       <c r="B17">
-        <v>0.0001077815</v>
+        <v>7.3248178188e-05</v>
       </c>
       <c r="C17">
-        <v>-0.0002041687</v>
+        <v>-5.2566979163e-05</v>
       </c>
       <c r="D17">
-        <v>-0.0002777635</v>
+        <v>-0.0001194903658</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>54376.863062</v>
+        <v>54483.795068</v>
       </c>
       <c r="B18">
-        <v>9.6045481805e-05</v>
+        <v>7.7998311767e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00039230648376</v>
+        <v>1.1401516054e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00056725757683</v>
+        <v>-3.6087690937e-05</v>
       </c>
     </row>
   </sheetData>
